--- a/biology/Botanique/Parc_Lumphini/Parc_Lumphini.xlsx
+++ b/biology/Botanique/Parc_Lumphini/Parc_Lumphini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Lumphini (thaï : สวนลุมพินี ; API : [sǔan lūm.pʰī.nīː]) est un parc public de 57,6 hectares situé dans le khwaeng de Lumphini, à Bangkok, en Thaïlande. Ce parc comprend des arbres, des terrains de jeux et un lac artificiel. Les visiteurs peuvent louer des bateaux. Les chemins autour du parc font 2,5km.
@@ -516,7 +528,9 @@
           <t>Link externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Facelift plans for Lumpini Park. 2019-08-11. Bangkok Post
 Sur les autres projets Wikimedia :
@@ -549,7 +563,9 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc constitue une carte dans le jeu vidéo Battlefield 4 dans le DLC Dragon's Teeth.
